--- a/create cards for OZON WB XLS/data to create Термонаклейки/Data_to_create9.xlsx
+++ b/create cards for OZON WB XLS/data to create Термонаклейки/Data_to_create9.xlsx
@@ -1273,7 +1273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="95">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -1491,35 +1491,19 @@
     <t xml:space="preserve">Термонаклейка Формы термозаплатка</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1563383294</t>
+  </si>
+  <si>
     <t xml:space="preserve">patch_a</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">https://raw</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/</t>
-    </r>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/</t>
   </si>
   <si>
     <t xml:space="preserve">Декор для одежды</t>
   </si>
   <si>
-    <t xml:space="preserve">Punky Monkey</t>
+    <t xml:space="preserve">Amazing Pics</t>
   </si>
   <si>
     <t xml:space="preserve">Полимерный материал</t>
@@ -1546,16 +1530,25 @@
     <t xml:space="preserve">Термонаклейка Сердечки термозаплатка</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1563383107</t>
+  </si>
+  <si>
     <t xml:space="preserve">patch_hearts_black</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Звезды Черные термозаплатка</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1563383242</t>
+  </si>
+  <si>
     <t xml:space="preserve">patch_stars_black</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Звезды Белые термозаплатка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1563382131</t>
   </si>
   <si>
     <t xml:space="preserve">patch_stars_white</t>
@@ -1898,8 +1891,8 @@
   </sheetPr>
   <dimension ref="A1:BS74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AL5" activeCellId="0" sqref="AL5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2169,8 +2162,11 @@
       <c r="A2" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>72</v>
+      </c>
       <c r="C2" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A2, ".pdf")</f>
@@ -2187,13 +2183,13 @@
         <v>2</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" s="0" t="str">
         <f aca="false">A2</f>
@@ -2203,12 +2199,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A2, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Формы термозаплатка</v>
       </c>
-      <c r="P2" s="8"/>
+      <c r="P2" s="8" t="str">
+        <f aca="false">B2</f>
+        <v>OZN1563383294</v>
+      </c>
       <c r="Q2" s="8" t="n">
         <v>349</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" s="9" t="str">
         <f aca="false">A2&amp;Описание!B7</f>
@@ -2228,7 +2227,7 @@
         <v>10</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" s="10" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,"instruction_A5.jpg;"),CONCATENATE(H2,"Video_DTF.mp4;"))</f>
@@ -2247,10 +2246,10 @@
         <v>524</v>
       </c>
       <c r="AD2" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE2" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH2" s="0" t="n">
         <f aca="false">W2</f>
@@ -2277,10 +2276,10 @@
       </c>
       <c r="AP2" s="15" t="str">
         <f aca="false">J2</f>
-        <v>Punky Monkey</v>
+        <v>Amazing Pics</v>
       </c>
       <c r="AQ2" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS2" s="12"/>
       <c r="AT2" s="0" t="str">
@@ -2288,7 +2287,7 @@
         <v>Формы термозаплатка</v>
       </c>
       <c r="AU2" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV2" s="0" t="str">
         <f aca="false">S2</f>
@@ -2304,7 +2303,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD2" s="12"/>
       <c r="BE2" s="16" t="str">
@@ -2316,7 +2315,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Формы термозаплатка</v>
       </c>
       <c r="BR2" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS2" s="18" t="str">
         <f aca="false">CONCATENATE(H2,"Video_DTF.mp4")</f>
@@ -2325,10 +2324,13 @@
     </row>
     <row r="3" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A3, ".pdf")</f>
@@ -2345,13 +2347,13 @@
         <v>2</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M3" s="0" t="str">
         <f aca="false">A3</f>
@@ -2361,11 +2363,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A3, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Сердечки термозаплатка</v>
       </c>
+      <c r="P3" s="8" t="str">
+        <f aca="false">B3</f>
+        <v>OZN1563383107</v>
+      </c>
       <c r="Q3" s="8" t="n">
         <v>349</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" s="9" t="str">
         <f aca="false">A3&amp;Описание!B8</f>
@@ -2385,7 +2391,7 @@
         <v>10</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y3" s="10" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H3,C3,"_1.jpg;"),CONCATENATE(H3,C3,"_2.jpg;"),CONCATENATE(H3,C3,"_3.jpg;"),CONCATENATE(H3,C3,"_4.jpg;"),CONCATENATE(H3,C3,"_5.jpg;"),CONCATENATE(H3,"instruction_A5.jpg;"),CONCATENATE(H3,"Video_DTF.mp4;"))</f>
@@ -2404,10 +2410,10 @@
         <v>524</v>
       </c>
       <c r="AD3" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH3" s="0" t="n">
         <f aca="false">W3</f>
@@ -2434,10 +2440,10 @@
       </c>
       <c r="AP3" s="15" t="str">
         <f aca="false">J3</f>
-        <v>Punky Monkey</v>
+        <v>Amazing Pics</v>
       </c>
       <c r="AQ3" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS3" s="12"/>
       <c r="AT3" s="0" t="str">
@@ -2445,7 +2451,7 @@
         <v>Сердечки термозаплатка</v>
       </c>
       <c r="AU3" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV3" s="0" t="str">
         <f aca="false">S3</f>
@@ -2461,7 +2467,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC3" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD3" s="12"/>
       <c r="BE3" s="16" t="str">
@@ -2473,7 +2479,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Сердечки термозаплатка</v>
       </c>
       <c r="BR3" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS3" s="18" t="str">
         <f aca="false">CONCATENATE(H3,"Video_DTF.mp4")</f>
@@ -2482,10 +2488,13 @@
     </row>
     <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>88</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D4" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A4, ".pdf")</f>
@@ -2502,13 +2511,13 @@
         <v>2</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M4" s="0" t="str">
         <f aca="false">A4</f>
@@ -2518,11 +2527,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A4, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Звезды Черные термозаплатка</v>
       </c>
+      <c r="P4" s="8" t="str">
+        <f aca="false">B4</f>
+        <v>OZN1563383242</v>
+      </c>
       <c r="Q4" s="8" t="n">
         <v>349</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" s="9" t="str">
         <f aca="false">A4&amp;Описание!B9</f>
@@ -2542,7 +2555,7 @@
         <v>10</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" s="10" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H4,C4,"_1.jpg;"),CONCATENATE(H4,C4,"_2.jpg;"),CONCATENATE(H4,C4,"_3.jpg;"),CONCATENATE(H4,C4,"_4.jpg;"),CONCATENATE(H4,C4,"_5.jpg;"),CONCATENATE(H4,"instruction_A5.jpg;"),CONCATENATE(H4,"Video_DTF.mp4;"))</f>
@@ -2561,10 +2574,10 @@
         <v>524</v>
       </c>
       <c r="AD4" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE4" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH4" s="0" t="n">
         <f aca="false">W4</f>
@@ -2591,10 +2604,10 @@
       </c>
       <c r="AP4" s="15" t="str">
         <f aca="false">J4</f>
-        <v>Punky Monkey</v>
+        <v>Amazing Pics</v>
       </c>
       <c r="AQ4" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS4" s="12"/>
       <c r="AT4" s="0" t="str">
@@ -2602,7 +2615,7 @@
         <v>Звезды Черные термозаплатка</v>
       </c>
       <c r="AU4" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV4" s="0" t="str">
         <f aca="false">S4</f>
@@ -2618,7 +2631,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC4" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD4" s="12"/>
       <c r="BE4" s="16" t="str">
@@ -2630,7 +2643,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Звезды Черные термозаплатка</v>
       </c>
       <c r="BR4" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS4" s="18" t="str">
         <f aca="false">CONCATENATE(H4,"Video_DTF.mp4")</f>
@@ -2639,10 +2652,13 @@
     </row>
     <row r="5" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A5, ".pdf")</f>
@@ -2659,13 +2675,13 @@
         <v>2</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M5" s="0" t="str">
         <f aca="false">A5</f>
@@ -2675,11 +2691,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A5, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Звезды Белые термозаплатка</v>
       </c>
+      <c r="P5" s="8" t="str">
+        <f aca="false">B5</f>
+        <v>OZN1563382131</v>
+      </c>
       <c r="Q5" s="8" t="n">
         <v>349</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" s="9" t="str">
         <f aca="false">A5&amp;Описание!B10</f>
@@ -2699,7 +2719,7 @@
         <v>10</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y5" s="10" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H5,C5,"_1.jpg;"),CONCATENATE(H5,C5,"_2.jpg;"),CONCATENATE(H5,C5,"_3.jpg;"),CONCATENATE(H5,C5,"_4.jpg;"),CONCATENATE(H5,C5,"_5.jpg;"),CONCATENATE(H5,"instruction_A5.jpg;"),CONCATENATE(H5,"Video_DTF.mp4;"))</f>
@@ -2718,10 +2738,10 @@
         <v>524</v>
       </c>
       <c r="AD5" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE5" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH5" s="0" t="n">
         <f aca="false">W5</f>
@@ -2748,10 +2768,10 @@
       </c>
       <c r="AP5" s="15" t="str">
         <f aca="false">J5</f>
-        <v>Punky Monkey</v>
+        <v>Amazing Pics</v>
       </c>
       <c r="AQ5" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS5" s="12"/>
       <c r="AT5" s="0" t="str">
@@ -2759,7 +2779,7 @@
         <v>Звезды Белые термозаплатка</v>
       </c>
       <c r="AU5" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV5" s="0" t="str">
         <f aca="false">S5</f>
@@ -2775,7 +2795,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC5" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD5" s="12"/>
       <c r="BE5" s="16" t="str">
@@ -2787,7 +2807,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Звезды Белые термозаплатка</v>
       </c>
       <c r="BR5" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS5" s="18" t="str">
         <f aca="false">CONCATENATE(H5,"Video_DTF.mp4")</f>
@@ -3069,10 +3089,10 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId2" display="https://raw"/>
-    <hyperlink ref="H3" r:id="rId3" display="https://raw"/>
-    <hyperlink ref="H4" r:id="rId4" display="https://raw"/>
-    <hyperlink ref="H5" r:id="rId5" display="https://raw"/>
+    <hyperlink ref="H2" r:id="rId2" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/"/>
+    <hyperlink ref="H3" r:id="rId3" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/"/>
+    <hyperlink ref="H4" r:id="rId4" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/"/>
+    <hyperlink ref="H5" r:id="rId5" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/set3/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3106,394 +3126,394 @@
     <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
